--- a/data/trans_dic/P32D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Estudios-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en atracón más de una vez al mes (Binge drinking) (6/5 o más bebidas estándar para hombre/mujer, respectivamente; 5/4 si mayores de 65 años) en una misma ocasión (entre 4-6h) (tasa de respuesta: 99,36%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking) (tasa de respuesta: 99,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -818,7 +818,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en atracón más de una vez al mes (Binge drinking) (6/5 o más bebidas estándar para hombre/mujer, respectivamente; 5/4 si mayores de 65 años) en una misma ocasión (entre 4-6h) (tasa de respuesta: 99,36%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking) (tasa de respuesta: 99,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.1145659396635175</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.07925338097824479</v>
+        <v>0.0792533809782448</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1066502573908485</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08063944264951821</v>
+        <v>0.08113464061592111</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03773596629553462</v>
+        <v>0.03601406586337769</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0760066466453143</v>
+        <v>0.07753784590877127</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1548804154261427</v>
+        <v>0.1605970398285069</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.164277044230644</v>
+        <v>0.1673221065434728</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1425662215413183</v>
+        <v>0.1454731778448718</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07914023899878546</v>
+        <v>0.07924233588989875</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03721709655107858</v>
+        <v>0.03671516703262577</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06980900876023179</v>
+        <v>0.06927254795511763</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1242333162648994</v>
+        <v>0.1272350365464757</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0796050280134095</v>
+        <v>0.07742702837590711</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1015660578026302</v>
+        <v>0.09903646822201656</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05000430479428167</v>
+        <v>0.04820540906437659</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06700974515745865</v>
+        <v>0.06580440488631695</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06378304467959238</v>
+        <v>0.06293584263217</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1121060393322254</v>
+        <v>0.1081925431545201</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1477297421046599</v>
+        <v>0.1520838411853189</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1101163785779051</v>
+        <v>0.1105023997697561</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.09650778253960063</v>
+        <v>0.09650778253960064</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.07039602847903453</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08135405594328159</v>
+        <v>0.08151563276219459</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05503067561574986</v>
+        <v>0.05503702437773999</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07490793950910424</v>
+        <v>0.07635445117827991</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1141896987112398</v>
+        <v>0.1143602381790731</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0889722913370804</v>
+        <v>0.09364859212390399</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0990848147561431</v>
+        <v>0.1019418396930978</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20528</v>
+        <v>20654</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2775</v>
+        <v>2649</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24939</v>
+        <v>25441</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39427</v>
+        <v>40882</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12082</v>
+        <v>12306</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>46778</v>
+        <v>47731</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>82657</v>
+        <v>82763</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20817</v>
+        <v>20536</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>111958</v>
+        <v>111097</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>129753</v>
+        <v>132888</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>44526</v>
+        <v>43308</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>162888</v>
+        <v>158832</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18270</v>
+        <v>17613</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18001</v>
+        <v>17677</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>40438</v>
+        <v>39901</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>40960</v>
+        <v>39530</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>39684</v>
+        <v>40854</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>69813</v>
+        <v>70058</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>135403</v>
+        <v>135672</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>49611</v>
+        <v>49617</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>192205</v>
+        <v>195916</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>190053</v>
+        <v>190337</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>80210</v>
+        <v>84425</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>254239</v>
+        <v>261570</v>
       </c>
     </row>
     <row r="20">
